--- a/data/train_mgl.xlsx
+++ b/data/train_mgl.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C750"/>
+  <dimension ref="A1:D750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>value</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -464,6 +469,9 @@
       <c r="C2" t="n">
         <v>5.14</v>
       </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -479,6 +487,9 @@
       <c r="C3" t="n">
         <v>0.29</v>
       </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -494,6 +505,9 @@
       <c r="C4" t="n">
         <v>5.1</v>
       </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -509,6 +523,9 @@
       <c r="C5" t="n">
         <v>1.53</v>
       </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -524,6 +541,9 @@
       <c r="C6" t="n">
         <v>42.2</v>
       </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,6 +559,9 @@
       <c r="C7" t="n">
         <v>1.8</v>
       </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -554,6 +577,9 @@
       <c r="C8" t="n">
         <v>22.9</v>
       </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -569,6 +595,9 @@
       <c r="C9" t="n">
         <v>2.6</v>
       </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -584,6 +613,9 @@
       <c r="C10" t="n">
         <v>0.54</v>
       </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -599,6 +631,9 @@
       <c r="C11" t="n">
         <v>5.1</v>
       </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -614,6 +649,9 @@
       <c r="C12" t="n">
         <v>3.26</v>
       </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -629,6 +667,9 @@
       <c r="C13" t="n">
         <v>7.94</v>
       </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -644,6 +685,9 @@
       <c r="C14" t="n">
         <v>7.02</v>
       </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -659,6 +703,9 @@
       <c r="C15" t="n">
         <v>0.14705</v>
       </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -674,6 +721,9 @@
       <c r="C16" t="n">
         <v>5.15</v>
       </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -689,6 +739,9 @@
       <c r="C17" t="n">
         <v>7.967000000000001</v>
       </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -704,6 +757,9 @@
       <c r="C18" t="n">
         <v>0.631</v>
       </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -719,6 +775,9 @@
       <c r="C19" t="n">
         <v>5.4</v>
       </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -734,6 +793,9 @@
       <c r="C20" t="n">
         <v>0.23</v>
       </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -749,6 +811,9 @@
       <c r="C21" t="n">
         <v>5.3</v>
       </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -764,6 +829,9 @@
       <c r="C22" t="n">
         <v>4.9</v>
       </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -779,6 +847,9 @@
       <c r="C23" t="n">
         <v>2.485</v>
       </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -794,6 +865,9 @@
       <c r="C24" t="n">
         <v>0.83</v>
       </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -809,6 +883,9 @@
       <c r="C25" t="n">
         <v>2.67</v>
       </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -824,6 +901,9 @@
       <c r="C26" t="n">
         <v>0.88</v>
       </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -839,6 +919,9 @@
       <c r="C27" t="n">
         <v>5.1</v>
       </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -854,6 +937,9 @@
       <c r="C28" t="n">
         <v>0.34</v>
       </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -869,6 +955,9 @@
       <c r="C29" t="n">
         <v>2.6</v>
       </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -884,6 +973,9 @@
       <c r="C30" t="n">
         <v>1.5</v>
       </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -899,6 +991,9 @@
       <c r="C31" t="n">
         <v>13.6</v>
       </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -914,6 +1009,9 @@
       <c r="C32" t="n">
         <v>0.439</v>
       </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -929,6 +1027,9 @@
       <c r="C33" t="n">
         <v>4.5</v>
       </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -944,6 +1045,9 @@
       <c r="C34" t="n">
         <v>3.2</v>
       </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -959,6 +1063,9 @@
       <c r="C35" t="n">
         <v>7.36</v>
       </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -974,6 +1081,9 @@
       <c r="C36" t="n">
         <v>24.04</v>
       </c>
+      <c r="D36" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -989,6 +1099,9 @@
       <c r="C37" t="n">
         <v>5.349999999999999</v>
       </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1004,6 +1117,9 @@
       <c r="C38" t="n">
         <v>5.058</v>
       </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1019,6 +1135,9 @@
       <c r="C39" t="n">
         <v>4.9</v>
       </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1034,6 +1153,9 @@
       <c r="C40" t="n">
         <v>1.81</v>
       </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1049,6 +1171,9 @@
       <c r="C41" t="n">
         <v>1.979</v>
       </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1064,6 +1189,9 @@
       <c r="C42" t="n">
         <v>5</v>
       </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1079,6 +1207,9 @@
       <c r="C43" t="n">
         <v>10.7</v>
       </c>
+      <c r="D43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1094,6 +1225,9 @@
       <c r="C44" t="n">
         <v>5.27</v>
       </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1109,6 +1243,9 @@
       <c r="C45" t="n">
         <v>4.25</v>
       </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1124,6 +1261,9 @@
       <c r="C46" t="n">
         <v>0.164</v>
       </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1139,6 +1279,9 @@
       <c r="C47" t="n">
         <v>0.0315</v>
       </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1154,6 +1297,9 @@
       <c r="C48" t="n">
         <v>4.25</v>
       </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1169,6 +1315,9 @@
       <c r="C49" t="n">
         <v>5.05</v>
       </c>
+      <c r="D49" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1184,6 +1333,9 @@
       <c r="C50" t="n">
         <v>5.01</v>
       </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1199,6 +1351,9 @@
       <c r="C51" t="n">
         <v>3.88</v>
       </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1214,6 +1369,9 @@
       <c r="C52" t="n">
         <v>3.363</v>
       </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1229,6 +1387,9 @@
       <c r="C53" t="n">
         <v>0.27</v>
       </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1244,6 +1405,9 @@
       <c r="C54" t="n">
         <v>5.04</v>
       </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1259,6 +1423,9 @@
       <c r="C55" t="n">
         <v>2</v>
       </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1274,6 +1441,9 @@
       <c r="C56" t="n">
         <v>23.6</v>
       </c>
+      <c r="D56" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1289,6 +1459,9 @@
       <c r="C57" t="n">
         <v>7.015000000000001</v>
       </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1304,6 +1477,9 @@
       <c r="C58" t="n">
         <v>4.9</v>
       </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1319,6 +1495,9 @@
       <c r="C59" t="n">
         <v>30</v>
       </c>
+      <c r="D59" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1334,6 +1513,9 @@
       <c r="C60" t="n">
         <v>5.16</v>
       </c>
+      <c r="D60" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1349,6 +1531,9 @@
       <c r="C61" t="n">
         <v>5.25</v>
       </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1364,6 +1549,9 @@
       <c r="C62" t="n">
         <v>3</v>
       </c>
+      <c r="D62" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1379,6 +1567,9 @@
       <c r="C63" t="n">
         <v>0.62</v>
       </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1394,6 +1585,9 @@
       <c r="C64" t="n">
         <v>1.7</v>
       </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1409,6 +1603,9 @@
       <c r="C65" t="n">
         <v>0.9956666666666667</v>
       </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1424,6 +1621,9 @@
       <c r="C66" t="n">
         <v>0.42</v>
       </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1439,6 +1639,9 @@
       <c r="C67" t="n">
         <v>4.25</v>
       </c>
+      <c r="D67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1454,6 +1657,9 @@
       <c r="C68" t="n">
         <v>0.525</v>
       </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1469,6 +1675,9 @@
       <c r="C69" t="n">
         <v>4.8</v>
       </c>
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1484,6 +1693,9 @@
       <c r="C70" t="n">
         <v>1</v>
       </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1499,6 +1711,9 @@
       <c r="C71" t="n">
         <v>0.41</v>
       </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1514,6 +1729,9 @@
       <c r="C72" t="n">
         <v>5.03</v>
       </c>
+      <c r="D72" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1529,6 +1747,9 @@
       <c r="C73" t="n">
         <v>6.8</v>
       </c>
+      <c r="D73" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1544,6 +1765,9 @@
       <c r="C74" t="n">
         <v>2</v>
       </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1559,6 +1783,9 @@
       <c r="C75" t="n">
         <v>2.06</v>
       </c>
+      <c r="D75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1574,6 +1801,9 @@
       <c r="C76" t="n">
         <v>5.17</v>
       </c>
+      <c r="D76" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1589,6 +1819,9 @@
       <c r="C77" t="n">
         <v>0.65</v>
       </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1604,6 +1837,9 @@
       <c r="C78" t="n">
         <v>6.95</v>
       </c>
+      <c r="D78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1619,6 +1855,9 @@
       <c r="C79" t="n">
         <v>2.33</v>
       </c>
+      <c r="D79" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1634,6 +1873,9 @@
       <c r="C80" t="n">
         <v>183.82</v>
       </c>
+      <c r="D80" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1649,6 +1891,9 @@
       <c r="C81" t="n">
         <v>4.224</v>
       </c>
+      <c r="D81" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1664,6 +1909,9 @@
       <c r="C82" t="n">
         <v>6.4</v>
       </c>
+      <c r="D82" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1679,6 +1927,9 @@
       <c r="C83" t="n">
         <v>1.01</v>
       </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1694,6 +1945,9 @@
       <c r="C84" t="n">
         <v>751.5</v>
       </c>
+      <c r="D84" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1709,6 +1963,9 @@
       <c r="C85" t="n">
         <v>0.5</v>
       </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1724,6 +1981,9 @@
       <c r="C86" t="n">
         <v>5.4</v>
       </c>
+      <c r="D86" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1739,6 +1999,9 @@
       <c r="C87" t="n">
         <v>28.95</v>
       </c>
+      <c r="D87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1754,6 +2017,9 @@
       <c r="C88" t="n">
         <v>14.5</v>
       </c>
+      <c r="D88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1769,6 +2035,9 @@
       <c r="C89" t="n">
         <v>0.25</v>
       </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1784,6 +2053,9 @@
       <c r="C90" t="n">
         <v>0.65</v>
       </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1799,6 +2071,9 @@
       <c r="C91" t="n">
         <v>2.2</v>
       </c>
+      <c r="D91" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1814,6 +2089,9 @@
       <c r="C92" t="n">
         <v>74.67</v>
       </c>
+      <c r="D92" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1829,6 +2107,9 @@
       <c r="C93" t="n">
         <v>1.8575</v>
       </c>
+      <c r="D93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1844,6 +2125,9 @@
       <c r="C94" t="n">
         <v>1.16</v>
       </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1859,6 +2143,9 @@
       <c r="C95" t="n">
         <v>6.41</v>
       </c>
+      <c r="D95" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1874,6 +2161,9 @@
       <c r="C96" t="n">
         <v>1.1</v>
       </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1889,6 +2179,9 @@
       <c r="C97" t="n">
         <v>4</v>
       </c>
+      <c r="D97" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1904,6 +2197,9 @@
       <c r="C98" t="n">
         <v>5.15</v>
       </c>
+      <c r="D98" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1919,6 +2215,9 @@
       <c r="C99" t="n">
         <v>5.47</v>
       </c>
+      <c r="D99" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1934,6 +2233,9 @@
       <c r="C100" t="n">
         <v>5.1</v>
       </c>
+      <c r="D100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1949,6 +2251,9 @@
       <c r="C101" t="n">
         <v>19</v>
       </c>
+      <c r="D101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1964,6 +2269,9 @@
       <c r="C102" t="n">
         <v>2.703333333333333</v>
       </c>
+      <c r="D102" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1979,6 +2287,9 @@
       <c r="C103" t="n">
         <v>5.4</v>
       </c>
+      <c r="D103" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1994,6 +2305,9 @@
       <c r="C104" t="n">
         <v>2.8</v>
       </c>
+      <c r="D104" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2009,6 +2323,9 @@
       <c r="C105" t="n">
         <v>7.94</v>
       </c>
+      <c r="D105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2024,6 +2341,9 @@
       <c r="C106" t="n">
         <v>0.66</v>
       </c>
+      <c r="D106" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2039,6 +2359,9 @@
       <c r="C107" t="n">
         <v>2.75</v>
       </c>
+      <c r="D107" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2054,6 +2377,9 @@
       <c r="C108" t="n">
         <v>7.5</v>
       </c>
+      <c r="D108" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2069,6 +2395,9 @@
       <c r="C109" t="n">
         <v>0.124</v>
       </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2084,6 +2413,9 @@
       <c r="C110" t="n">
         <v>5.7</v>
       </c>
+      <c r="D110" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2099,6 +2431,9 @@
       <c r="C111" t="n">
         <v>5.07</v>
       </c>
+      <c r="D111" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2114,6 +2449,9 @@
       <c r="C112" t="n">
         <v>0.9350000000000001</v>
       </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2129,6 +2467,9 @@
       <c r="C113" t="n">
         <v>1.49</v>
       </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2144,6 +2485,9 @@
       <c r="C114" t="n">
         <v>0.23</v>
       </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2159,6 +2503,9 @@
       <c r="C115" t="n">
         <v>0.05</v>
       </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2174,6 +2521,9 @@
       <c r="C116" t="n">
         <v>0.32</v>
       </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2189,6 +2539,9 @@
       <c r="C117" t="n">
         <v>5.05</v>
       </c>
+      <c r="D117" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2204,6 +2557,9 @@
       <c r="C118" t="n">
         <v>1.167</v>
       </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2219,6 +2575,9 @@
       <c r="C119" t="n">
         <v>4.242</v>
       </c>
+      <c r="D119" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2234,6 +2593,9 @@
       <c r="C120" t="n">
         <v>1.1</v>
       </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2249,6 +2611,9 @@
       <c r="C121" t="n">
         <v>5.05</v>
       </c>
+      <c r="D121" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2264,6 +2629,9 @@
       <c r="C122" t="n">
         <v>4.06</v>
       </c>
+      <c r="D122" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2279,6 +2647,9 @@
       <c r="C123" t="n">
         <v>0.4</v>
       </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2294,6 +2665,9 @@
       <c r="C124" t="n">
         <v>0.115</v>
       </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2309,6 +2683,9 @@
       <c r="C125" t="n">
         <v>11.23333333333333</v>
       </c>
+      <c r="D125" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2324,6 +2701,9 @@
       <c r="C126" t="n">
         <v>57</v>
       </c>
+      <c r="D126" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2339,6 +2719,9 @@
       <c r="C127" t="n">
         <v>4.951000000000001</v>
       </c>
+      <c r="D127" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2354,6 +2737,9 @@
       <c r="C128" t="n">
         <v>5.01</v>
       </c>
+      <c r="D128" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2369,6 +2755,9 @@
       <c r="C129" t="n">
         <v>71</v>
       </c>
+      <c r="D129" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2384,6 +2773,9 @@
       <c r="C130" t="n">
         <v>5.75</v>
       </c>
+      <c r="D130" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2399,6 +2791,9 @@
       <c r="C131" t="n">
         <v>20.5</v>
       </c>
+      <c r="D131" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2414,6 +2809,9 @@
       <c r="C132" t="n">
         <v>6.635</v>
       </c>
+      <c r="D132" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2429,6 +2827,9 @@
       <c r="C133" t="n">
         <v>5.15</v>
       </c>
+      <c r="D133" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2444,6 +2845,9 @@
       <c r="C134" t="n">
         <v>1.17075</v>
       </c>
+      <c r="D134" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2459,6 +2863,9 @@
       <c r="C135" t="n">
         <v>5.4</v>
       </c>
+      <c r="D135" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2474,6 +2881,9 @@
       <c r="C136" t="n">
         <v>8.966666666666667</v>
       </c>
+      <c r="D136" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2489,6 +2899,9 @@
       <c r="C137" t="n">
         <v>5</v>
       </c>
+      <c r="D137" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2504,6 +2917,9 @@
       <c r="C138" t="n">
         <v>7.94</v>
       </c>
+      <c r="D138" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2519,6 +2935,9 @@
       <c r="C139" t="n">
         <v>5.5</v>
       </c>
+      <c r="D139" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2534,6 +2953,9 @@
       <c r="C140" t="n">
         <v>2.3</v>
       </c>
+      <c r="D140" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2549,6 +2971,9 @@
       <c r="C141" t="n">
         <v>2.42</v>
       </c>
+      <c r="D141" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2564,6 +2989,9 @@
       <c r="C142" t="n">
         <v>5.36</v>
       </c>
+      <c r="D142" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2579,6 +3007,9 @@
       <c r="C143" t="n">
         <v>5.1</v>
       </c>
+      <c r="D143" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2594,6 +3025,9 @@
       <c r="C144" t="n">
         <v>0.49</v>
       </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2609,6 +3043,9 @@
       <c r="C145" t="n">
         <v>5.4</v>
       </c>
+      <c r="D145" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2624,6 +3061,9 @@
       <c r="C146" t="n">
         <v>1.345</v>
       </c>
+      <c r="D146" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2639,6 +3079,9 @@
       <c r="C147" t="n">
         <v>5.289</v>
       </c>
+      <c r="D147" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2654,6 +3097,9 @@
       <c r="C148" t="n">
         <v>0.008</v>
       </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2669,6 +3115,9 @@
       <c r="C149" t="n">
         <v>1.8575</v>
       </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2684,6 +3133,9 @@
       <c r="C150" t="n">
         <v>5.85</v>
       </c>
+      <c r="D150" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2699,6 +3151,9 @@
       <c r="C151" t="n">
         <v>5.5</v>
       </c>
+      <c r="D151" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2714,6 +3169,9 @@
       <c r="C152" t="n">
         <v>2.119</v>
       </c>
+      <c r="D152" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2729,6 +3187,9 @@
       <c r="C153" t="n">
         <v>0.89</v>
       </c>
+      <c r="D153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2744,6 +3205,9 @@
       <c r="C154" t="n">
         <v>20.4</v>
       </c>
+      <c r="D154" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2759,6 +3223,9 @@
       <c r="C155" t="n">
         <v>5.788</v>
       </c>
+      <c r="D155" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2774,6 +3241,9 @@
       <c r="C156" t="n">
         <v>1.9</v>
       </c>
+      <c r="D156" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2789,6 +3259,9 @@
       <c r="C157" t="n">
         <v>3.76</v>
       </c>
+      <c r="D157" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2804,6 +3277,9 @@
       <c r="C158" t="n">
         <v>2.1</v>
       </c>
+      <c r="D158" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2819,6 +3295,9 @@
       <c r="C159" t="n">
         <v>0.2</v>
       </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2834,6 +3313,9 @@
       <c r="C160" t="n">
         <v>7.849999999999999</v>
       </c>
+      <c r="D160" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -2849,6 +3331,9 @@
       <c r="C161" t="n">
         <v>5</v>
       </c>
+      <c r="D161" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -2864,6 +3349,9 @@
       <c r="C162" t="n">
         <v>5.1</v>
       </c>
+      <c r="D162" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2879,6 +3367,9 @@
       <c r="C163" t="n">
         <v>0.13</v>
       </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -2894,6 +3385,9 @@
       <c r="C164" t="n">
         <v>0.333</v>
       </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -2909,6 +3403,9 @@
       <c r="C165" t="n">
         <v>21</v>
       </c>
+      <c r="D165" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -2924,6 +3421,9 @@
       <c r="C166" t="n">
         <v>28</v>
       </c>
+      <c r="D166" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -2939,6 +3439,9 @@
       <c r="C167" t="n">
         <v>17</v>
       </c>
+      <c r="D167" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2954,6 +3457,9 @@
       <c r="C168" t="n">
         <v>5.1</v>
       </c>
+      <c r="D168" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -2969,6 +3475,9 @@
       <c r="C169" t="n">
         <v>5.03</v>
       </c>
+      <c r="D169" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -2984,6 +3493,9 @@
       <c r="C170" t="n">
         <v>5.4</v>
       </c>
+      <c r="D170" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -2999,6 +3511,9 @@
       <c r="C171" t="n">
         <v>4.6</v>
       </c>
+      <c r="D171" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3014,6 +3529,9 @@
       <c r="C172" t="n">
         <v>0.8233333333333333</v>
       </c>
+      <c r="D172" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -3029,6 +3547,9 @@
       <c r="C173" t="n">
         <v>0.05</v>
       </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -3044,6 +3565,9 @@
       <c r="C174" t="n">
         <v>5.18</v>
       </c>
+      <c r="D174" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3059,6 +3583,9 @@
       <c r="C175" t="n">
         <v>4.8</v>
       </c>
+      <c r="D175" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3074,6 +3601,9 @@
       <c r="C176" t="n">
         <v>19.5</v>
       </c>
+      <c r="D176" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3089,6 +3619,9 @@
       <c r="C177" t="n">
         <v>7.94</v>
       </c>
+      <c r="D177" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3104,6 +3637,9 @@
       <c r="C178" t="n">
         <v>7.69</v>
       </c>
+      <c r="D178" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3119,6 +3655,9 @@
       <c r="C179" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -3134,6 +3673,9 @@
       <c r="C180" t="n">
         <v>1.9</v>
       </c>
+      <c r="D180" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3149,6 +3691,9 @@
       <c r="C181" t="n">
         <v>1.67</v>
       </c>
+      <c r="D181" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -3164,6 +3709,9 @@
       <c r="C182" t="n">
         <v>0.043</v>
       </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3179,6 +3727,9 @@
       <c r="C183" t="n">
         <v>2.166666666666667</v>
       </c>
+      <c r="D183" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -3194,6 +3745,9 @@
       <c r="C184" t="n">
         <v>4.951000000000001</v>
       </c>
+      <c r="D184" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -3209,6 +3763,9 @@
       <c r="C185" t="n">
         <v>5.31</v>
       </c>
+      <c r="D185" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -3224,6 +3781,9 @@
       <c r="C186" t="n">
         <v>9.625</v>
       </c>
+      <c r="D186" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3239,6 +3799,9 @@
       <c r="C187" t="n">
         <v>2.45</v>
       </c>
+      <c r="D187" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -3254,6 +3817,9 @@
       <c r="C188" t="n">
         <v>68.40000000000001</v>
       </c>
+      <c r="D188" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -3269,6 +3835,9 @@
       <c r="C189" t="n">
         <v>13.4</v>
       </c>
+      <c r="D189" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -3284,6 +3853,9 @@
       <c r="C190" t="n">
         <v>4.7</v>
       </c>
+      <c r="D190" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -3299,6 +3871,9 @@
       <c r="C191" t="n">
         <v>5.1</v>
       </c>
+      <c r="D191" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -3314,6 +3889,9 @@
       <c r="C192" t="n">
         <v>4.74</v>
       </c>
+      <c r="D192" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -3329,6 +3907,9 @@
       <c r="C193" t="n">
         <v>0.0236</v>
       </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -3344,6 +3925,9 @@
       <c r="C194" t="n">
         <v>1</v>
       </c>
+      <c r="D194" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -3359,6 +3943,9 @@
       <c r="C195" t="n">
         <v>4.93</v>
       </c>
+      <c r="D195" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -3374,6 +3961,9 @@
       <c r="C196" t="n">
         <v>2.65</v>
       </c>
+      <c r="D196" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -3389,6 +3979,9 @@
       <c r="C197" t="n">
         <v>2.67</v>
       </c>
+      <c r="D197" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -3404,6 +3997,9 @@
       <c r="C198" t="n">
         <v>11.23</v>
       </c>
+      <c r="D198" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -3419,6 +4015,9 @@
       <c r="C199" t="n">
         <v>3.363</v>
       </c>
+      <c r="D199" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -3434,6 +4033,9 @@
       <c r="C200" t="n">
         <v>5.1</v>
       </c>
+      <c r="D200" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -3449,6 +4051,9 @@
       <c r="C201" t="n">
         <v>5.07</v>
       </c>
+      <c r="D201" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -3464,6 +4069,9 @@
       <c r="C202" t="n">
         <v>5.45</v>
       </c>
+      <c r="D202" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -3479,6 +4087,9 @@
       <c r="C203" t="n">
         <v>5</v>
       </c>
+      <c r="D203" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -3494,6 +4105,9 @@
       <c r="C204" t="n">
         <v>6.3</v>
       </c>
+      <c r="D204" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -3509,6 +4123,9 @@
       <c r="C205" t="n">
         <v>5</v>
       </c>
+      <c r="D205" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -3524,6 +4141,9 @@
       <c r="C206" t="n">
         <v>0.7800000000000001</v>
       </c>
+      <c r="D206" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -3539,6 +4159,9 @@
       <c r="C207" t="n">
         <v>0.83</v>
       </c>
+      <c r="D207" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -3554,6 +4177,9 @@
       <c r="C208" t="n">
         <v>0.395</v>
       </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -3569,6 +4195,9 @@
       <c r="C209" t="n">
         <v>5</v>
       </c>
+      <c r="D209" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -3584,6 +4213,9 @@
       <c r="C210" t="n">
         <v>0.1105</v>
       </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -3599,6 +4231,9 @@
       <c r="C211" t="n">
         <v>6.100000000000001</v>
       </c>
+      <c r="D211" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -3614,6 +4249,9 @@
       <c r="C212" t="n">
         <v>4.588</v>
       </c>
+      <c r="D212" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -3629,6 +4267,9 @@
       <c r="C213" t="n">
         <v>0.27</v>
       </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -3644,6 +4285,9 @@
       <c r="C214" t="n">
         <v>6.5</v>
       </c>
+      <c r="D214" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -3659,6 +4303,9 @@
       <c r="C215" t="n">
         <v>5.05</v>
       </c>
+      <c r="D215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -3674,6 +4321,9 @@
       <c r="C216" t="n">
         <v>9.899999999999999</v>
       </c>
+      <c r="D216" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -3689,6 +4339,9 @@
       <c r="C217" t="n">
         <v>0.237</v>
       </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -3704,6 +4357,9 @@
       <c r="C218" t="n">
         <v>0.75</v>
       </c>
+      <c r="D218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -3719,6 +4375,9 @@
       <c r="C219" t="n">
         <v>4.25</v>
       </c>
+      <c r="D219" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -3734,6 +4393,9 @@
       <c r="C220" t="n">
         <v>0.49</v>
       </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -3749,6 +4411,9 @@
       <c r="C221" t="n">
         <v>0.1117</v>
       </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -3764,6 +4429,9 @@
       <c r="C222" t="n">
         <v>5.05</v>
       </c>
+      <c r="D222" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -3779,6 +4447,9 @@
       <c r="C223" t="n">
         <v>7.94</v>
       </c>
+      <c r="D223" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -3794,6 +4465,9 @@
       <c r="C224" t="n">
         <v>1.966666666666667</v>
       </c>
+      <c r="D224" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -3809,6 +4483,9 @@
       <c r="C225" t="n">
         <v>5</v>
       </c>
+      <c r="D225" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -3824,6 +4501,9 @@
       <c r="C226" t="n">
         <v>3.46</v>
       </c>
+      <c r="D226" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -3839,6 +4519,9 @@
       <c r="C227" t="n">
         <v>2.51</v>
       </c>
+      <c r="D227" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -3854,6 +4537,9 @@
       <c r="C228" t="n">
         <v>5.967</v>
       </c>
+      <c r="D228" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -3869,6 +4555,9 @@
       <c r="C229" t="n">
         <v>2.03</v>
       </c>
+      <c r="D229" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -3884,6 +4573,9 @@
       <c r="C230" t="n">
         <v>1.86</v>
       </c>
+      <c r="D230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -3899,6 +4591,9 @@
       <c r="C231" t="n">
         <v>0.6</v>
       </c>
+      <c r="D231" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -3914,6 +4609,9 @@
       <c r="C232" t="n">
         <v>23</v>
       </c>
+      <c r="D232" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -3929,6 +4627,9 @@
       <c r="C233" t="n">
         <v>10</v>
       </c>
+      <c r="D233" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -3944,6 +4645,9 @@
       <c r="C234" t="n">
         <v>3.42</v>
       </c>
+      <c r="D234" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -3959,6 +4663,9 @@
       <c r="C235" t="n">
         <v>27.93333333333333</v>
       </c>
+      <c r="D235" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -3974,6 +4681,9 @@
       <c r="C236" t="n">
         <v>4.4</v>
       </c>
+      <c r="D236" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -3989,6 +4699,9 @@
       <c r="C237" t="n">
         <v>7.758</v>
       </c>
+      <c r="D237" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -4004,6 +4717,9 @@
       <c r="C238" t="n">
         <v>19.86861538461539</v>
       </c>
+      <c r="D238" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -4019,6 +4735,9 @@
       <c r="C239" t="n">
         <v>0.1615</v>
       </c>
+      <c r="D239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -4034,6 +4753,9 @@
       <c r="C240" t="n">
         <v>5.24</v>
       </c>
+      <c r="D240" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -4049,6 +4771,9 @@
       <c r="C241" t="n">
         <v>2.868</v>
       </c>
+      <c r="D241" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -4064,6 +4789,9 @@
       <c r="C242" t="n">
         <v>1.14</v>
       </c>
+      <c r="D242" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -4079,6 +4807,9 @@
       <c r="C243" t="n">
         <v>4.77</v>
       </c>
+      <c r="D243" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -4094,6 +4825,9 @@
       <c r="C244" t="n">
         <v>1.6</v>
       </c>
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -4109,6 +4843,9 @@
       <c r="C245" t="n">
         <v>2.3</v>
       </c>
+      <c r="D245" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -4124,6 +4861,9 @@
       <c r="C246" t="n">
         <v>5.05</v>
       </c>
+      <c r="D246" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -4139,6 +4879,9 @@
       <c r="C247" t="n">
         <v>0.25</v>
       </c>
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -4154,6 +4897,9 @@
       <c r="C248" t="n">
         <v>0.52</v>
       </c>
+      <c r="D248" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -4169,6 +4915,9 @@
       <c r="C249" t="n">
         <v>0.043</v>
       </c>
+      <c r="D249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -4184,6 +4933,9 @@
       <c r="C250" t="n">
         <v>5.1</v>
       </c>
+      <c r="D250" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -4199,6 +4951,9 @@
       <c r="C251" t="n">
         <v>0.0905</v>
       </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -4214,6 +4969,9 @@
       <c r="C252" t="n">
         <v>0.41</v>
       </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -4229,6 +4987,9 @@
       <c r="C253" t="n">
         <v>5.5</v>
       </c>
+      <c r="D253" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -4244,6 +5005,9 @@
       <c r="C254" t="n">
         <v>6</v>
       </c>
+      <c r="D254" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -4259,6 +5023,9 @@
       <c r="C255" t="n">
         <v>1.979</v>
       </c>
+      <c r="D255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -4274,6 +5041,9 @@
       <c r="C256" t="n">
         <v>5.4</v>
       </c>
+      <c r="D256" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -4289,6 +5059,9 @@
       <c r="C257" t="n">
         <v>5</v>
       </c>
+      <c r="D257" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -4304,6 +5077,9 @@
       <c r="C258" t="n">
         <v>1.8575</v>
       </c>
+      <c r="D258" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -4319,6 +5095,9 @@
       <c r="C259" t="n">
         <v>0.888</v>
       </c>
+      <c r="D259" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -4334,6 +5113,9 @@
       <c r="C260" t="n">
         <v>5.05</v>
       </c>
+      <c r="D260" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -4349,6 +5131,9 @@
       <c r="C261" t="n">
         <v>2.031</v>
       </c>
+      <c r="D261" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -4364,6 +5149,9 @@
       <c r="C262" t="n">
         <v>2.03</v>
       </c>
+      <c r="D262" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -4379,6 +5167,9 @@
       <c r="C263" t="n">
         <v>5.004</v>
       </c>
+      <c r="D263" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -4394,6 +5185,9 @@
       <c r="C264" t="n">
         <v>5.19</v>
       </c>
+      <c r="D264" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -4409,6 +5203,9 @@
       <c r="C265" t="n">
         <v>1.21</v>
       </c>
+      <c r="D265" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -4424,6 +5221,9 @@
       <c r="C266" t="n">
         <v>1.85</v>
       </c>
+      <c r="D266" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -4439,6 +5239,9 @@
       <c r="C267" t="n">
         <v>2.1</v>
       </c>
+      <c r="D267" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -4454,6 +5257,9 @@
       <c r="C268" t="n">
         <v>3.72</v>
       </c>
+      <c r="D268" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -4469,6 +5275,9 @@
       <c r="C269" t="n">
         <v>21.2</v>
       </c>
+      <c r="D269" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -4484,6 +5293,9 @@
       <c r="C270" t="n">
         <v>7</v>
       </c>
+      <c r="D270" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -4499,6 +5311,9 @@
       <c r="C271" t="n">
         <v>5.967</v>
       </c>
+      <c r="D271" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -4514,6 +5329,9 @@
       <c r="C272" t="n">
         <v>1.6</v>
       </c>
+      <c r="D272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -4529,6 +5347,9 @@
       <c r="C273" t="n">
         <v>0.195</v>
       </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -4544,6 +5365,9 @@
       <c r="C274" t="n">
         <v>1.72</v>
       </c>
+      <c r="D274" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -4559,6 +5383,9 @@
       <c r="C275" t="n">
         <v>5</v>
       </c>
+      <c r="D275" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -4574,6 +5401,9 @@
       <c r="C276" t="n">
         <v>2.910333333333333</v>
       </c>
+      <c r="D276" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -4589,6 +5419,9 @@
       <c r="C277" t="n">
         <v>5</v>
       </c>
+      <c r="D277" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -4604,6 +5437,9 @@
       <c r="C278" t="n">
         <v>5</v>
       </c>
+      <c r="D278" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -4619,6 +5455,9 @@
       <c r="C279" t="n">
         <v>6.100000000000001</v>
       </c>
+      <c r="D279" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -4634,6 +5473,9 @@
       <c r="C280" t="n">
         <v>0.034</v>
       </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -4649,6 +5491,9 @@
       <c r="C281" t="n">
         <v>1.7</v>
       </c>
+      <c r="D281" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -4664,6 +5509,9 @@
       <c r="C282" t="n">
         <v>1</v>
       </c>
+      <c r="D282" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -4679,6 +5527,9 @@
       <c r="C283" t="n">
         <v>2.263</v>
       </c>
+      <c r="D283" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -4694,6 +5545,9 @@
       <c r="C284" t="n">
         <v>22.2</v>
       </c>
+      <c r="D284" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -4709,6 +5563,9 @@
       <c r="C285" t="n">
         <v>5.991000000000001</v>
       </c>
+      <c r="D285" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -4724,6 +5581,9 @@
       <c r="C286" t="n">
         <v>5.81</v>
       </c>
+      <c r="D286" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -4739,6 +5599,9 @@
       <c r="C287" t="n">
         <v>5.12</v>
       </c>
+      <c r="D287" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -4754,6 +5617,9 @@
       <c r="C288" t="n">
         <v>0.1</v>
       </c>
+      <c r="D288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -4769,6 +5635,9 @@
       <c r="C289" t="n">
         <v>0.9226666666666667</v>
       </c>
+      <c r="D289" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -4784,6 +5653,9 @@
       <c r="C290" t="n">
         <v>2</v>
       </c>
+      <c r="D290" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -4799,6 +5671,9 @@
       <c r="C291" t="n">
         <v>2.22</v>
       </c>
+      <c r="D291" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -4814,6 +5689,9 @@
       <c r="C292" t="n">
         <v>0.49</v>
       </c>
+      <c r="D292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -4829,6 +5707,9 @@
       <c r="C293" t="n">
         <v>7.94</v>
       </c>
+      <c r="D293" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -4844,6 +5725,9 @@
       <c r="C294" t="n">
         <v>0.58</v>
       </c>
+      <c r="D294" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -4859,6 +5743,9 @@
       <c r="C295" t="n">
         <v>7.94</v>
       </c>
+      <c r="D295" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -4874,6 +5761,9 @@
       <c r="C296" t="n">
         <v>1.8575</v>
       </c>
+      <c r="D296" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -4889,6 +5779,9 @@
       <c r="C297" t="n">
         <v>2.423333333333333</v>
       </c>
+      <c r="D297" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -4904,6 +5797,9 @@
       <c r="C298" t="n">
         <v>2729</v>
       </c>
+      <c r="D298" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -4919,6 +5815,9 @@
       <c r="C299" t="n">
         <v>0.9410000000000001</v>
       </c>
+      <c r="D299" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -4934,6 +5833,9 @@
       <c r="C300" t="n">
         <v>5.07</v>
       </c>
+      <c r="D300" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -4949,6 +5851,9 @@
       <c r="C301" t="n">
         <v>2.6</v>
       </c>
+      <c r="D301" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -4964,6 +5869,9 @@
       <c r="C302" t="n">
         <v>2.44</v>
       </c>
+      <c r="D302" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -4979,6 +5887,9 @@
       <c r="C303" t="n">
         <v>0.88</v>
       </c>
+      <c r="D303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -4994,6 +5905,9 @@
       <c r="C304" t="n">
         <v>11.37</v>
       </c>
+      <c r="D304" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -5009,6 +5923,9 @@
       <c r="C305" t="n">
         <v>0.047</v>
       </c>
+      <c r="D305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -5024,6 +5941,9 @@
       <c r="C306" t="n">
         <v>9.063000000000001</v>
       </c>
+      <c r="D306" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -5039,6 +5959,9 @@
       <c r="C307" t="n">
         <v>10.5</v>
       </c>
+      <c r="D307" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -5054,6 +5977,9 @@
       <c r="C308" t="n">
         <v>4.8</v>
       </c>
+      <c r="D308" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -5069,6 +5995,9 @@
       <c r="C309" t="n">
         <v>5.36</v>
       </c>
+      <c r="D309" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -5084,6 +6013,9 @@
       <c r="C310" t="n">
         <v>1.515</v>
       </c>
+      <c r="D310" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -5099,6 +6031,9 @@
       <c r="C311" t="n">
         <v>3.92</v>
       </c>
+      <c r="D311" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -5114,6 +6049,9 @@
       <c r="C312" t="n">
         <v>0.72</v>
       </c>
+      <c r="D312" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -5129,6 +6067,9 @@
       <c r="C313" t="n">
         <v>5.1</v>
       </c>
+      <c r="D313" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -5144,6 +6085,9 @@
       <c r="C314" t="n">
         <v>4</v>
       </c>
+      <c r="D314" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -5159,6 +6103,9 @@
       <c r="C315" t="n">
         <v>0.115</v>
       </c>
+      <c r="D315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -5174,6 +6121,9 @@
       <c r="C316" t="n">
         <v>0.92</v>
       </c>
+      <c r="D316" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -5189,6 +6139,9 @@
       <c r="C317" t="n">
         <v>9.5</v>
       </c>
+      <c r="D317" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -5204,6 +6157,9 @@
       <c r="C318" t="n">
         <v>2729</v>
       </c>
+      <c r="D318" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -5219,6 +6175,9 @@
       <c r="C319" t="n">
         <v>0.1</v>
       </c>
+      <c r="D319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -5234,6 +6193,9 @@
       <c r="C320" t="n">
         <v>3.6</v>
       </c>
+      <c r="D320" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -5249,6 +6211,9 @@
       <c r="C321" t="n">
         <v>1.975</v>
       </c>
+      <c r="D321" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -5264,6 +6229,9 @@
       <c r="C322" t="n">
         <v>6.7</v>
       </c>
+      <c r="D322" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -5279,6 +6247,9 @@
       <c r="C323" t="n">
         <v>2.07</v>
       </c>
+      <c r="D323" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -5294,6 +6265,9 @@
       <c r="C324" t="n">
         <v>4.88</v>
       </c>
+      <c r="D324" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -5309,6 +6283,9 @@
       <c r="C325" t="n">
         <v>7.053333333333334</v>
       </c>
+      <c r="D325" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -5324,6 +6301,9 @@
       <c r="C326" t="n">
         <v>6.51</v>
       </c>
+      <c r="D326" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -5339,6 +6319,9 @@
       <c r="C327" t="n">
         <v>5.08</v>
       </c>
+      <c r="D327" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -5354,6 +6337,9 @@
       <c r="C328" t="n">
         <v>5</v>
       </c>
+      <c r="D328" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -5369,6 +6355,9 @@
       <c r="C329" t="n">
         <v>4.178</v>
       </c>
+      <c r="D329" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -5384,6 +6373,9 @@
       <c r="C330" t="n">
         <v>0.5</v>
       </c>
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -5399,6 +6391,9 @@
       <c r="C331" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="D331" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -5414,6 +6409,9 @@
       <c r="C332" t="n">
         <v>2</v>
       </c>
+      <c r="D332" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -5429,6 +6427,9 @@
       <c r="C333" t="n">
         <v>3.1</v>
       </c>
+      <c r="D333" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -5444,6 +6445,9 @@
       <c r="C334" t="n">
         <v>3.5</v>
       </c>
+      <c r="D334" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -5459,6 +6463,9 @@
       <c r="C335" t="n">
         <v>4.09</v>
       </c>
+      <c r="D335" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -5474,6 +6481,9 @@
       <c r="C336" t="n">
         <v>4.31</v>
       </c>
+      <c r="D336" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -5489,6 +6499,9 @@
       <c r="C337" t="n">
         <v>5.05</v>
       </c>
+      <c r="D337" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -5504,6 +6517,9 @@
       <c r="C338" t="n">
         <v>32.88</v>
       </c>
+      <c r="D338" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -5519,6 +6535,9 @@
       <c r="C339" t="n">
         <v>1</v>
       </c>
+      <c r="D339" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -5534,6 +6553,9 @@
       <c r="C340" t="n">
         <v>0.1133333333333333</v>
       </c>
+      <c r="D340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -5549,6 +6571,9 @@
       <c r="C341" t="n">
         <v>27.93333333333333</v>
       </c>
+      <c r="D341" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -5564,6 +6589,9 @@
       <c r="C342" t="n">
         <v>5.4</v>
       </c>
+      <c r="D342" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -5579,6 +6607,9 @@
       <c r="C343" t="n">
         <v>0.527</v>
       </c>
+      <c r="D343" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -5594,6 +6625,9 @@
       <c r="C344" t="n">
         <v>2</v>
       </c>
+      <c r="D344" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -5609,6 +6643,9 @@
       <c r="C345" t="n">
         <v>5.34</v>
       </c>
+      <c r="D345" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -5624,6 +6661,9 @@
       <c r="C346" t="n">
         <v>10.5</v>
       </c>
+      <c r="D346" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -5639,6 +6679,9 @@
       <c r="C347" t="n">
         <v>1.186666666666667</v>
       </c>
+      <c r="D347" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -5654,6 +6697,9 @@
       <c r="C348" t="n">
         <v>1.927333333333333</v>
       </c>
+      <c r="D348" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -5669,6 +6715,9 @@
       <c r="C349" t="n">
         <v>0.11</v>
       </c>
+      <c r="D349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -5684,6 +6733,9 @@
       <c r="C350" t="n">
         <v>24.88</v>
       </c>
+      <c r="D350" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -5699,6 +6751,9 @@
       <c r="C351" t="n">
         <v>2.33</v>
       </c>
+      <c r="D351" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -5714,6 +6769,9 @@
       <c r="C352" t="n">
         <v>5</v>
       </c>
+      <c r="D352" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -5729,6 +6787,9 @@
       <c r="C353" t="n">
         <v>0.49</v>
       </c>
+      <c r="D353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -5744,6 +6805,9 @@
       <c r="C354" t="n">
         <v>16.5</v>
       </c>
+      <c r="D354" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -5759,6 +6823,9 @@
       <c r="C355" t="n">
         <v>0.851</v>
       </c>
+      <c r="D355" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -5774,6 +6841,9 @@
       <c r="C356" t="n">
         <v>5.41</v>
       </c>
+      <c r="D356" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -5789,6 +6859,9 @@
       <c r="C357" t="n">
         <v>5.27</v>
       </c>
+      <c r="D357" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -5804,6 +6877,9 @@
       <c r="C358" t="n">
         <v>0.865</v>
       </c>
+      <c r="D358" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -5819,6 +6895,9 @@
       <c r="C359" t="n">
         <v>4.8</v>
       </c>
+      <c r="D359" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -5834,6 +6913,9 @@
       <c r="C360" t="n">
         <v>0.2233333333333334</v>
       </c>
+      <c r="D360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -5849,6 +6931,9 @@
       <c r="C361" t="n">
         <v>2</v>
       </c>
+      <c r="D361" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -5864,6 +6949,9 @@
       <c r="C362" t="n">
         <v>2.529</v>
       </c>
+      <c r="D362" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -5879,6 +6967,9 @@
       <c r="C363" t="n">
         <v>1.49</v>
       </c>
+      <c r="D363" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -5894,6 +6985,9 @@
       <c r="C364" t="n">
         <v>0.09</v>
       </c>
+      <c r="D364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -5909,6 +7003,9 @@
       <c r="C365" t="n">
         <v>0.4</v>
       </c>
+      <c r="D365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -5924,6 +7021,9 @@
       <c r="C366" t="n">
         <v>5.24</v>
       </c>
+      <c r="D366" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -5939,6 +7039,9 @@
       <c r="C367" t="n">
         <v>4.58</v>
       </c>
+      <c r="D367" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -5954,6 +7057,9 @@
       <c r="C368" t="n">
         <v>2.6</v>
       </c>
+      <c r="D368" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -5969,6 +7075,9 @@
       <c r="C369" t="n">
         <v>7.69</v>
       </c>
+      <c r="D369" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -5984,6 +7093,9 @@
       <c r="C370" t="n">
         <v>4.48</v>
       </c>
+      <c r="D370" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -5999,6 +7111,9 @@
       <c r="C371" t="n">
         <v>0.205</v>
       </c>
+      <c r="D371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -6014,6 +7129,9 @@
       <c r="C372" t="n">
         <v>5.1</v>
       </c>
+      <c r="D372" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -6029,6 +7147,9 @@
       <c r="C373" t="n">
         <v>5.07</v>
       </c>
+      <c r="D373" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -6044,6 +7165,9 @@
       <c r="C374" t="n">
         <v>2.081</v>
       </c>
+      <c r="D374" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -6059,6 +7183,9 @@
       <c r="C375" t="n">
         <v>3.086666666666666</v>
       </c>
+      <c r="D375" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -6074,6 +7201,9 @@
       <c r="C376" t="n">
         <v>0.53</v>
       </c>
+      <c r="D376" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -6089,6 +7219,9 @@
       <c r="C377" t="n">
         <v>0.59</v>
       </c>
+      <c r="D377" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -6104,6 +7237,9 @@
       <c r="C378" t="n">
         <v>19.171</v>
       </c>
+      <c r="D378" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -6119,6 +7255,9 @@
       <c r="C379" t="n">
         <v>26.4</v>
       </c>
+      <c r="D379" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -6134,6 +7273,9 @@
       <c r="C380" t="n">
         <v>0.2855</v>
       </c>
+      <c r="D380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -6149,6 +7291,9 @@
       <c r="C381" t="n">
         <v>10.2</v>
       </c>
+      <c r="D381" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -6164,6 +7309,9 @@
       <c r="C382" t="n">
         <v>0.281</v>
       </c>
+      <c r="D382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -6179,6 +7327,9 @@
       <c r="C383" t="n">
         <v>5.05</v>
       </c>
+      <c r="D383" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -6194,6 +7345,9 @@
       <c r="C384" t="n">
         <v>5</v>
       </c>
+      <c r="D384" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -6209,6 +7363,9 @@
       <c r="C385" t="n">
         <v>2.910333333333333</v>
       </c>
+      <c r="D385" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -6224,6 +7381,9 @@
       <c r="C386" t="n">
         <v>5</v>
       </c>
+      <c r="D386" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -6239,6 +7399,9 @@
       <c r="C387" t="n">
         <v>48.22499999999999</v>
       </c>
+      <c r="D387" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -6254,6 +7417,9 @@
       <c r="C388" t="n">
         <v>0.7000000000000001</v>
       </c>
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -6269,6 +7435,9 @@
       <c r="C389" t="n">
         <v>5.085</v>
       </c>
+      <c r="D389" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -6284,6 +7453,9 @@
       <c r="C390" t="n">
         <v>36</v>
       </c>
+      <c r="D390" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -6299,6 +7471,9 @@
       <c r="C391" t="n">
         <v>1</v>
       </c>
+      <c r="D391" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -6314,6 +7489,9 @@
       <c r="C392" t="n">
         <v>4.124</v>
       </c>
+      <c r="D392" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -6329,6 +7507,9 @@
       <c r="C393" t="n">
         <v>0.91</v>
       </c>
+      <c r="D393" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -6344,6 +7525,9 @@
       <c r="C394" t="n">
         <v>1.836</v>
       </c>
+      <c r="D394" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -6359,6 +7543,9 @@
       <c r="C395" t="n">
         <v>6.100000000000001</v>
       </c>
+      <c r="D395" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -6374,6 +7561,9 @@
       <c r="C396" t="n">
         <v>26.59</v>
       </c>
+      <c r="D396" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -6389,6 +7579,9 @@
       <c r="C397" t="n">
         <v>1.818</v>
       </c>
+      <c r="D397" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -6404,6 +7597,9 @@
       <c r="C398" t="n">
         <v>2.6</v>
       </c>
+      <c r="D398" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -6419,6 +7615,9 @@
       <c r="C399" t="n">
         <v>3.966666666666667</v>
       </c>
+      <c r="D399" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -6434,6 +7633,9 @@
       <c r="C400" t="n">
         <v>0.6</v>
       </c>
+      <c r="D400" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -6449,6 +7651,9 @@
       <c r="C401" t="n">
         <v>5.04</v>
       </c>
+      <c r="D401" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -6464,6 +7669,9 @@
       <c r="C402" t="n">
         <v>125.1333333333333</v>
       </c>
+      <c r="D402" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -6479,6 +7687,9 @@
       <c r="C403" t="n">
         <v>2.99</v>
       </c>
+      <c r="D403" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -6494,6 +7705,9 @@
       <c r="C404" t="n">
         <v>2.91</v>
       </c>
+      <c r="D404" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -6509,6 +7723,9 @@
       <c r="C405" t="n">
         <v>0.27</v>
       </c>
+      <c r="D405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -6524,6 +7741,9 @@
       <c r="C406" t="n">
         <v>2</v>
       </c>
+      <c r="D406" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -6539,6 +7759,9 @@
       <c r="C407" t="n">
         <v>5.4</v>
       </c>
+      <c r="D407" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -6554,6 +7777,9 @@
       <c r="C408" t="n">
         <v>1.81</v>
       </c>
+      <c r="D408" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -6569,6 +7795,9 @@
       <c r="C409" t="n">
         <v>1500</v>
       </c>
+      <c r="D409" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -6584,6 +7813,9 @@
       <c r="C410" t="n">
         <v>5.05</v>
       </c>
+      <c r="D410" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -6599,6 +7831,9 @@
       <c r="C411" t="n">
         <v>2.6</v>
       </c>
+      <c r="D411" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -6614,6 +7849,9 @@
       <c r="C412" t="n">
         <v>5.266</v>
       </c>
+      <c r="D412" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -6629,6 +7867,9 @@
       <c r="C413" t="n">
         <v>2.589</v>
       </c>
+      <c r="D413" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -6644,6 +7885,9 @@
       <c r="C414" t="n">
         <v>6.1</v>
       </c>
+      <c r="D414" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -6659,6 +7903,9 @@
       <c r="C415" t="n">
         <v>5.2</v>
       </c>
+      <c r="D415" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -6674,6 +7921,9 @@
       <c r="C416" t="n">
         <v>1.7</v>
       </c>
+      <c r="D416" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -6689,6 +7939,9 @@
       <c r="C417" t="n">
         <v>5.3</v>
       </c>
+      <c r="D417" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -6704,6 +7957,9 @@
       <c r="C418" t="n">
         <v>0.054</v>
       </c>
+      <c r="D418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -6719,6 +7975,9 @@
       <c r="C419" t="n">
         <v>0.076</v>
       </c>
+      <c r="D419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -6734,6 +7993,9 @@
       <c r="C420" t="n">
         <v>7.74</v>
       </c>
+      <c r="D420" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -6749,6 +8011,9 @@
       <c r="C421" t="n">
         <v>22.6</v>
       </c>
+      <c r="D421" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -6764,6 +8029,9 @@
       <c r="C422" t="n">
         <v>9.4</v>
       </c>
+      <c r="D422" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -6779,6 +8047,9 @@
       <c r="C423" t="n">
         <v>0.046</v>
       </c>
+      <c r="D423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -6794,6 +8065,9 @@
       <c r="C424" t="n">
         <v>7.1</v>
       </c>
+      <c r="D424" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -6809,6 +8083,9 @@
       <c r="C425" t="n">
         <v>0.83</v>
       </c>
+      <c r="D425" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -6824,6 +8101,9 @@
       <c r="C426" t="n">
         <v>6.76</v>
       </c>
+      <c r="D426" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -6839,6 +8119,9 @@
       <c r="C427" t="n">
         <v>0.303</v>
       </c>
+      <c r="D427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -6854,6 +8137,9 @@
       <c r="C428" t="n">
         <v>5.07</v>
       </c>
+      <c r="D428" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -6869,6 +8155,9 @@
       <c r="C429" t="n">
         <v>2.242</v>
       </c>
+      <c r="D429" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -6884,6 +8173,9 @@
       <c r="C430" t="n">
         <v>5.05</v>
       </c>
+      <c r="D430" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -6899,6 +8191,9 @@
       <c r="C431" t="n">
         <v>5.88</v>
       </c>
+      <c r="D431" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -6914,6 +8209,9 @@
       <c r="C432" t="n">
         <v>2.51</v>
       </c>
+      <c r="D432" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -6929,6 +8227,9 @@
       <c r="C433" t="n">
         <v>0.7833333333333333</v>
       </c>
+      <c r="D433" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -6944,6 +8245,9 @@
       <c r="C434" t="n">
         <v>0.76</v>
       </c>
+      <c r="D434" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -6959,6 +8263,9 @@
       <c r="C435" t="n">
         <v>12.62</v>
       </c>
+      <c r="D435" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -6974,6 +8281,9 @@
       <c r="C436" t="n">
         <v>1.12</v>
       </c>
+      <c r="D436" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -6989,6 +8299,9 @@
       <c r="C437" t="n">
         <v>5.99</v>
       </c>
+      <c r="D437" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -7004,6 +8317,9 @@
       <c r="C438" t="n">
         <v>200</v>
       </c>
+      <c r="D438" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -7019,6 +8335,9 @@
       <c r="C439" t="n">
         <v>13.5</v>
       </c>
+      <c r="D439" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -7034,6 +8353,9 @@
       <c r="C440" t="n">
         <v>86.88833333333334</v>
       </c>
+      <c r="D440" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -7049,6 +8371,9 @@
       <c r="C441" t="n">
         <v>5.1</v>
       </c>
+      <c r="D441" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -7064,6 +8389,9 @@
       <c r="C442" t="n">
         <v>0.63</v>
       </c>
+      <c r="D442" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -7079,6 +8407,9 @@
       <c r="C443" t="n">
         <v>8.817</v>
       </c>
+      <c r="D443" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -7094,6 +8425,9 @@
       <c r="C444" t="n">
         <v>0.3033333333333333</v>
       </c>
+      <c r="D444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -7109,6 +8443,9 @@
       <c r="C445" t="n">
         <v>0.061</v>
       </c>
+      <c r="D445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -7124,6 +8461,9 @@
       <c r="C446" t="n">
         <v>7.3</v>
       </c>
+      <c r="D446" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -7139,6 +8479,9 @@
       <c r="C447" t="n">
         <v>6.41</v>
       </c>
+      <c r="D447" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -7154,6 +8497,9 @@
       <c r="C448" t="n">
         <v>4.44</v>
       </c>
+      <c r="D448" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -7169,6 +8515,9 @@
       <c r="C449" t="n">
         <v>0.58</v>
       </c>
+      <c r="D449" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -7184,6 +8533,9 @@
       <c r="C450" t="n">
         <v>14.3</v>
       </c>
+      <c r="D450" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -7199,6 +8551,9 @@
       <c r="C451" t="n">
         <v>5.2</v>
       </c>
+      <c r="D451" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -7214,6 +8569,9 @@
       <c r="C452" t="n">
         <v>22.2</v>
       </c>
+      <c r="D452" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -7229,6 +8587,9 @@
       <c r="C453" t="n">
         <v>0.46</v>
       </c>
+      <c r="D453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -7244,6 +8605,9 @@
       <c r="C454" t="n">
         <v>3.696666666666667</v>
       </c>
+      <c r="D454" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -7259,6 +8623,9 @@
       <c r="C455" t="n">
         <v>0.27</v>
       </c>
+      <c r="D455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -7274,6 +8641,9 @@
       <c r="C456" t="n">
         <v>3</v>
       </c>
+      <c r="D456" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -7289,6 +8659,9 @@
       <c r="C457" t="n">
         <v>2</v>
       </c>
+      <c r="D457" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -7304,6 +8677,9 @@
       <c r="C458" t="n">
         <v>1.82</v>
       </c>
+      <c r="D458" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -7319,6 +8695,9 @@
       <c r="C459" t="n">
         <v>5.14</v>
       </c>
+      <c r="D459" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -7334,6 +8713,9 @@
       <c r="C460" t="n">
         <v>0.152</v>
       </c>
+      <c r="D460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -7349,6 +8731,9 @@
       <c r="C461" t="n">
         <v>11.25</v>
       </c>
+      <c r="D461" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -7364,6 +8749,9 @@
       <c r="C462" t="n">
         <v>0.4225</v>
       </c>
+      <c r="D462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -7379,6 +8767,9 @@
       <c r="C463" t="n">
         <v>5.8</v>
       </c>
+      <c r="D463" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -7394,6 +8785,9 @@
       <c r="C464" t="n">
         <v>43.767</v>
       </c>
+      <c r="D464" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -7409,6 +8803,9 @@
       <c r="C465" t="n">
         <v>7.083333333333333</v>
       </c>
+      <c r="D465" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -7424,6 +8821,9 @@
       <c r="C466" t="n">
         <v>5.3</v>
       </c>
+      <c r="D466" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -7439,6 +8839,9 @@
       <c r="C467" t="n">
         <v>5.41</v>
       </c>
+      <c r="D467" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -7454,6 +8857,9 @@
       <c r="C468" t="n">
         <v>6.100000000000001</v>
       </c>
+      <c r="D468" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -7469,6 +8875,9 @@
       <c r="C469" t="n">
         <v>5.32</v>
       </c>
+      <c r="D469" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -7484,6 +8893,9 @@
       <c r="C470" t="n">
         <v>5.88</v>
       </c>
+      <c r="D470" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -7499,6 +8911,9 @@
       <c r="C471" t="n">
         <v>2.1</v>
       </c>
+      <c r="D471" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -7514,6 +8929,9 @@
       <c r="C472" t="n">
         <v>0.9490000000000002</v>
       </c>
+      <c r="D472" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -7529,6 +8947,9 @@
       <c r="C473" t="n">
         <v>0.41</v>
       </c>
+      <c r="D473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -7544,6 +8965,9 @@
       <c r="C474" t="n">
         <v>1.951</v>
       </c>
+      <c r="D474" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -7559,6 +8983,9 @@
       <c r="C475" t="n">
         <v>16</v>
       </c>
+      <c r="D475" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -7574,6 +9001,9 @@
       <c r="C476" t="n">
         <v>5.07</v>
       </c>
+      <c r="D476" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -7589,6 +9019,9 @@
       <c r="C477" t="n">
         <v>2.6</v>
       </c>
+      <c r="D477" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -7604,6 +9037,9 @@
       <c r="C478" t="n">
         <v>1</v>
       </c>
+      <c r="D478" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -7619,6 +9055,9 @@
       <c r="C479" t="n">
         <v>1.47</v>
       </c>
+      <c r="D479" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -7634,6 +9073,9 @@
       <c r="C480" t="n">
         <v>2.1</v>
       </c>
+      <c r="D480" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -7649,6 +9091,9 @@
       <c r="C481" t="n">
         <v>0.58</v>
       </c>
+      <c r="D481" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -7664,6 +9109,9 @@
       <c r="C482" t="n">
         <v>0.04633333333333334</v>
       </c>
+      <c r="D482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -7679,6 +9127,9 @@
       <c r="C483" t="n">
         <v>3.2</v>
       </c>
+      <c r="D483" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -7694,6 +9145,9 @@
       <c r="C484" t="n">
         <v>0.2</v>
       </c>
+      <c r="D484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -7709,6 +9163,9 @@
       <c r="C485" t="n">
         <v>85</v>
       </c>
+      <c r="D485" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -7724,6 +9181,9 @@
       <c r="C486" t="n">
         <v>14.2</v>
       </c>
+      <c r="D486" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -7739,6 +9199,9 @@
       <c r="C487" t="n">
         <v>8.614285714285714</v>
       </c>
+      <c r="D487" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -7754,6 +9217,9 @@
       <c r="C488" t="n">
         <v>4.8</v>
       </c>
+      <c r="D488" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -7769,6 +9235,9 @@
       <c r="C489" t="n">
         <v>6.04</v>
       </c>
+      <c r="D489" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -7784,6 +9253,9 @@
       <c r="C490" t="n">
         <v>5.53</v>
       </c>
+      <c r="D490" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -7799,6 +9271,9 @@
       <c r="C491" t="n">
         <v>0.5566666666666666</v>
       </c>
+      <c r="D491" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -7814,6 +9289,9 @@
       <c r="C492" t="n">
         <v>1.7</v>
       </c>
+      <c r="D492" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -7829,6 +9307,9 @@
       <c r="C493" t="n">
         <v>4.06</v>
       </c>
+      <c r="D493" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -7844,6 +9325,9 @@
       <c r="C494" t="n">
         <v>2.966666666666667</v>
       </c>
+      <c r="D494" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -7859,6 +9343,9 @@
       <c r="C495" t="n">
         <v>0.04</v>
       </c>
+      <c r="D495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -7874,6 +9361,9 @@
       <c r="C496" t="n">
         <v>0.42</v>
       </c>
+      <c r="D496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -7889,6 +9379,9 @@
       <c r="C497" t="n">
         <v>1.81</v>
       </c>
+      <c r="D497" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -7904,6 +9397,9 @@
       <c r="C498" t="n">
         <v>3.51</v>
       </c>
+      <c r="D498" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -7919,6 +9415,9 @@
       <c r="C499" t="n">
         <v>1.14</v>
       </c>
+      <c r="D499" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -7934,6 +9433,9 @@
       <c r="C500" t="n">
         <v>0.651</v>
       </c>
+      <c r="D500" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -7949,6 +9451,9 @@
       <c r="C501" t="n">
         <v>0.5</v>
       </c>
+      <c r="D501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -7964,6 +9469,9 @@
       <c r="C502" t="n">
         <v>4.066</v>
       </c>
+      <c r="D502" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -7979,6 +9487,9 @@
       <c r="C503" t="n">
         <v>3.87</v>
       </c>
+      <c r="D503" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -7994,6 +9505,9 @@
       <c r="C504" t="n">
         <v>5</v>
       </c>
+      <c r="D504" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -8009,6 +9523,9 @@
       <c r="C505" t="n">
         <v>5</v>
       </c>
+      <c r="D505" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -8024,6 +9541,9 @@
       <c r="C506" t="n">
         <v>3.005</v>
       </c>
+      <c r="D506" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -8039,6 +9559,9 @@
       <c r="C507" t="n">
         <v>4.9</v>
       </c>
+      <c r="D507" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -8054,6 +9577,9 @@
       <c r="C508" t="n">
         <v>5</v>
       </c>
+      <c r="D508" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -8069,6 +9595,9 @@
       <c r="C509" t="n">
         <v>5.3</v>
       </c>
+      <c r="D509" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -8084,6 +9613,9 @@
       <c r="C510" t="n">
         <v>1.203</v>
       </c>
+      <c r="D510" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -8099,6 +9631,9 @@
       <c r="C511" t="n">
         <v>5.400000000000001</v>
       </c>
+      <c r="D511" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -8114,6 +9649,9 @@
       <c r="C512" t="n">
         <v>1.93</v>
       </c>
+      <c r="D512" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -8129,6 +9667,9 @@
       <c r="C513" t="n">
         <v>55</v>
       </c>
+      <c r="D513" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -8144,6 +9685,9 @@
       <c r="C514" t="n">
         <v>21.6</v>
       </c>
+      <c r="D514" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -8159,6 +9703,9 @@
       <c r="C515" t="n">
         <v>0.08700000000000001</v>
       </c>
+      <c r="D515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -8174,6 +9721,9 @@
       <c r="C516" t="n">
         <v>4.945</v>
       </c>
+      <c r="D516" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -8189,6 +9739,9 @@
       <c r="C517" t="n">
         <v>8.535</v>
       </c>
+      <c r="D517" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -8204,6 +9757,9 @@
       <c r="C518" t="n">
         <v>33.52</v>
       </c>
+      <c r="D518" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -8219,6 +9775,9 @@
       <c r="C519" t="n">
         <v>0.1736666666666667</v>
       </c>
+      <c r="D519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -8234,6 +9793,9 @@
       <c r="C520" t="n">
         <v>4.499</v>
       </c>
+      <c r="D520" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -8249,6 +9811,9 @@
       <c r="C521" t="n">
         <v>6.8</v>
       </c>
+      <c r="D521" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -8264,6 +9829,9 @@
       <c r="C522" t="n">
         <v>0.89</v>
       </c>
+      <c r="D522" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -8279,6 +9847,9 @@
       <c r="C523" t="n">
         <v>5.967</v>
       </c>
+      <c r="D523" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -8294,6 +9865,9 @@
       <c r="C524" t="n">
         <v>1</v>
       </c>
+      <c r="D524" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -8309,6 +9883,9 @@
       <c r="C525" t="n">
         <v>1</v>
       </c>
+      <c r="D525" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -8324,6 +9901,9 @@
       <c r="C526" t="n">
         <v>4.951000000000001</v>
       </c>
+      <c r="D526" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -8339,6 +9919,9 @@
       <c r="C527" t="n">
         <v>1.268</v>
       </c>
+      <c r="D527" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -8354,6 +9937,9 @@
       <c r="C528" t="n">
         <v>0.9365</v>
       </c>
+      <c r="D528" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -8369,6 +9955,9 @@
       <c r="C529" t="n">
         <v>5.39</v>
       </c>
+      <c r="D529" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -8384,6 +9973,9 @@
       <c r="C530" t="n">
         <v>3.6</v>
       </c>
+      <c r="D530" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -8399,6 +9991,9 @@
       <c r="C531" t="n">
         <v>3.69</v>
       </c>
+      <c r="D531" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -8414,6 +10009,9 @@
       <c r="C532" t="n">
         <v>1.17</v>
       </c>
+      <c r="D532" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -8429,6 +10027,9 @@
       <c r="C533" t="n">
         <v>0.845</v>
       </c>
+      <c r="D533" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -8444,6 +10045,9 @@
       <c r="C534" t="n">
         <v>5.2</v>
       </c>
+      <c r="D534" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -8459,6 +10063,9 @@
       <c r="C535" t="n">
         <v>5.1</v>
       </c>
+      <c r="D535" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -8474,6 +10081,9 @@
       <c r="C536" t="n">
         <v>1.7</v>
       </c>
+      <c r="D536" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -8489,6 +10099,9 @@
       <c r="C537" t="n">
         <v>1.5</v>
       </c>
+      <c r="D537" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -8504,6 +10117,9 @@
       <c r="C538" t="n">
         <v>7.04</v>
       </c>
+      <c r="D538" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -8519,6 +10135,9 @@
       <c r="C539" t="n">
         <v>5.4</v>
       </c>
+      <c r="D539" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -8534,6 +10153,9 @@
       <c r="C540" t="n">
         <v>5.991000000000001</v>
       </c>
+      <c r="D540" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -8549,6 +10171,9 @@
       <c r="C541" t="n">
         <v>23.2</v>
       </c>
+      <c r="D541" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -8564,6 +10189,9 @@
       <c r="C542" t="n">
         <v>22</v>
       </c>
+      <c r="D542" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -8579,6 +10207,9 @@
       <c r="C543" t="n">
         <v>5.1</v>
       </c>
+      <c r="D543" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -8594,6 +10225,9 @@
       <c r="C544" t="n">
         <v>5.35</v>
       </c>
+      <c r="D544" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -8609,6 +10243,9 @@
       <c r="C545" t="n">
         <v>5.14</v>
       </c>
+      <c r="D545" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -8624,6 +10261,9 @@
       <c r="C546" t="n">
         <v>11.2</v>
       </c>
+      <c r="D546" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -8639,6 +10279,9 @@
       <c r="C547" t="n">
         <v>42.7</v>
       </c>
+      <c r="D547" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -8654,6 +10297,9 @@
       <c r="C548" t="n">
         <v>4.6</v>
       </c>
+      <c r="D548" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -8669,6 +10315,9 @@
       <c r="C549" t="n">
         <v>0.416</v>
       </c>
+      <c r="D549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -8684,6 +10333,9 @@
       <c r="C550" t="n">
         <v>5.06</v>
       </c>
+      <c r="D550" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -8699,6 +10351,9 @@
       <c r="C551" t="n">
         <v>0.9</v>
       </c>
+      <c r="D551" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -8714,6 +10369,9 @@
       <c r="C552" t="n">
         <v>15.57</v>
       </c>
+      <c r="D552" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -8729,6 +10387,9 @@
       <c r="C553" t="n">
         <v>4.25</v>
       </c>
+      <c r="D553" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -8744,6 +10405,9 @@
       <c r="C554" t="n">
         <v>23.94</v>
       </c>
+      <c r="D554" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -8759,6 +10423,9 @@
       <c r="C555" t="n">
         <v>0.32</v>
       </c>
+      <c r="D555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -8774,6 +10441,9 @@
       <c r="C556" t="n">
         <v>0.029</v>
       </c>
+      <c r="D556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -8789,6 +10459,9 @@
       <c r="C557" t="n">
         <v>0.024</v>
       </c>
+      <c r="D557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -8804,6 +10477,9 @@
       <c r="C558" t="n">
         <v>4.8</v>
       </c>
+      <c r="D558" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -8819,6 +10495,9 @@
       <c r="C559" t="n">
         <v>5.266</v>
       </c>
+      <c r="D559" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -8834,6 +10513,9 @@
       <c r="C560" t="n">
         <v>0.005</v>
       </c>
+      <c r="D560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -8849,6 +10531,9 @@
       <c r="C561" t="n">
         <v>2.04</v>
       </c>
+      <c r="D561" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -8864,6 +10549,9 @@
       <c r="C562" t="n">
         <v>2.26</v>
       </c>
+      <c r="D562" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -8879,6 +10567,9 @@
       <c r="C563" t="n">
         <v>5.22</v>
       </c>
+      <c r="D563" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -8894,6 +10585,9 @@
       <c r="C564" t="n">
         <v>0.275</v>
       </c>
+      <c r="D564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -8909,6 +10603,9 @@
       <c r="C565" t="n">
         <v>5.41</v>
       </c>
+      <c r="D565" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -8924,6 +10621,9 @@
       <c r="C566" t="n">
         <v>4.9</v>
       </c>
+      <c r="D566" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -8939,6 +10639,9 @@
       <c r="C567" t="n">
         <v>1.243333333333333</v>
       </c>
+      <c r="D567" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -8954,6 +10657,9 @@
       <c r="C568" t="n">
         <v>7.7</v>
       </c>
+      <c r="D568" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -8969,6 +10675,9 @@
       <c r="C569" t="n">
         <v>5.2</v>
       </c>
+      <c r="D569" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -8984,6 +10693,9 @@
       <c r="C570" t="n">
         <v>7.5</v>
       </c>
+      <c r="D570" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -8999,6 +10711,9 @@
       <c r="C571" t="n">
         <v>5.57</v>
       </c>
+      <c r="D571" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -9014,6 +10729,9 @@
       <c r="C572" t="n">
         <v>1.59</v>
       </c>
+      <c r="D572" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -9029,6 +10747,9 @@
       <c r="C573" t="n">
         <v>9.137</v>
       </c>
+      <c r="D573" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -9044,6 +10765,9 @@
       <c r="C574" t="n">
         <v>9.59</v>
       </c>
+      <c r="D574" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -9059,6 +10783,9 @@
       <c r="C575" t="n">
         <v>5.3</v>
       </c>
+      <c r="D575" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -9074,6 +10801,9 @@
       <c r="C576" t="n">
         <v>5.47</v>
       </c>
+      <c r="D576" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -9089,6 +10819,9 @@
       <c r="C577" t="n">
         <v>4.94</v>
       </c>
+      <c r="D577" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -9104,6 +10837,9 @@
       <c r="C578" t="n">
         <v>1</v>
       </c>
+      <c r="D578" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -9119,6 +10855,9 @@
       <c r="C579" t="n">
         <v>5.991000000000001</v>
       </c>
+      <c r="D579" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -9134,6 +10873,9 @@
       <c r="C580" t="n">
         <v>1.138</v>
       </c>
+      <c r="D580" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -9149,6 +10891,9 @@
       <c r="C581" t="n">
         <v>4.9</v>
       </c>
+      <c r="D581" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -9164,6 +10909,9 @@
       <c r="C582" t="n">
         <v>5.43</v>
       </c>
+      <c r="D582" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -9179,6 +10927,9 @@
       <c r="C583" t="n">
         <v>5.1</v>
       </c>
+      <c r="D583" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -9194,6 +10945,9 @@
       <c r="C584" t="n">
         <v>5</v>
       </c>
+      <c r="D584" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -9209,6 +10963,9 @@
       <c r="C585" t="n">
         <v>5.1</v>
       </c>
+      <c r="D585" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -9224,6 +10981,9 @@
       <c r="C586" t="n">
         <v>1.487666666666667</v>
       </c>
+      <c r="D586" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -9239,6 +10999,9 @@
       <c r="C587" t="n">
         <v>6.100000000000001</v>
       </c>
+      <c r="D587" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -9254,6 +11017,9 @@
       <c r="C588" t="n">
         <v>10.16666666666667</v>
       </c>
+      <c r="D588" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -9269,6 +11035,9 @@
       <c r="C589" t="n">
         <v>0.9</v>
       </c>
+      <c r="D589" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -9284,6 +11053,9 @@
       <c r="C590" t="n">
         <v>6.83</v>
       </c>
+      <c r="D590" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -9299,6 +11071,9 @@
       <c r="C591" t="n">
         <v>3.005</v>
       </c>
+      <c r="D591" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -9314,6 +11089,9 @@
       <c r="C592" t="n">
         <v>4.92</v>
       </c>
+      <c r="D592" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -9329,6 +11107,9 @@
       <c r="C593" t="n">
         <v>5.05</v>
       </c>
+      <c r="D593" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -9344,6 +11125,9 @@
       <c r="C594" t="n">
         <v>4.9</v>
       </c>
+      <c r="D594" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -9359,6 +11143,9 @@
       <c r="C595" t="n">
         <v>4.42</v>
       </c>
+      <c r="D595" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -9374,6 +11161,9 @@
       <c r="C596" t="n">
         <v>4.263333333333333</v>
       </c>
+      <c r="D596" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -9389,6 +11179,9 @@
       <c r="C597" t="n">
         <v>0.37</v>
       </c>
+      <c r="D597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -9404,6 +11197,9 @@
       <c r="C598" t="n">
         <v>1.313333333333333</v>
       </c>
+      <c r="D598" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -9419,6 +11215,9 @@
       <c r="C599" t="n">
         <v>2.516666666666667</v>
       </c>
+      <c r="D599" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -9434,6 +11233,9 @@
       <c r="C600" t="n">
         <v>0.74</v>
       </c>
+      <c r="D600" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -9449,6 +11251,9 @@
       <c r="C601" t="n">
         <v>4.06</v>
       </c>
+      <c r="D601" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -9464,6 +11269,9 @@
       <c r="C602" t="n">
         <v>5.289</v>
       </c>
+      <c r="D602" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -9479,6 +11287,9 @@
       <c r="C603" t="n">
         <v>5.2</v>
       </c>
+      <c r="D603" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -9494,6 +11305,9 @@
       <c r="C604" t="n">
         <v>1.07</v>
       </c>
+      <c r="D604" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -9509,6 +11323,9 @@
       <c r="C605" t="n">
         <v>8.800000000000001</v>
       </c>
+      <c r="D605" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -9524,6 +11341,9 @@
       <c r="C606" t="n">
         <v>11.2</v>
       </c>
+      <c r="D606" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -9539,6 +11359,9 @@
       <c r="C607" t="n">
         <v>1.721</v>
       </c>
+      <c r="D607" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -9554,6 +11377,9 @@
       <c r="C608" t="n">
         <v>0.3</v>
       </c>
+      <c r="D608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -9569,6 +11395,9 @@
       <c r="C609" t="n">
         <v>2.6</v>
       </c>
+      <c r="D609" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -9584,6 +11413,9 @@
       <c r="C610" t="n">
         <v>12.3</v>
       </c>
+      <c r="D610" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -9599,6 +11431,9 @@
       <c r="C611" t="n">
         <v>5.64</v>
       </c>
+      <c r="D611" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -9614,6 +11449,9 @@
       <c r="C612" t="n">
         <v>5.42</v>
       </c>
+      <c r="D612" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -9629,6 +11467,9 @@
       <c r="C613" t="n">
         <v>0.26</v>
       </c>
+      <c r="D613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -9644,6 +11485,9 @@
       <c r="C614" t="n">
         <v>4.066666666666666</v>
       </c>
+      <c r="D614" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -9659,6 +11503,9 @@
       <c r="C615" t="n">
         <v>0.66</v>
       </c>
+      <c r="D615" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -9674,6 +11521,9 @@
       <c r="C616" t="n">
         <v>4.25</v>
       </c>
+      <c r="D616" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -9689,6 +11539,9 @@
       <c r="C617" t="n">
         <v>0.03</v>
       </c>
+      <c r="D617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -9704,6 +11557,9 @@
       <c r="C618" t="n">
         <v>68.26666666666667</v>
       </c>
+      <c r="D618" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -9719,6 +11575,9 @@
       <c r="C619" t="n">
         <v>1.14</v>
       </c>
+      <c r="D619" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -9734,6 +11593,9 @@
       <c r="C620" t="n">
         <v>5.46</v>
       </c>
+      <c r="D620" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -9749,6 +11611,9 @@
       <c r="C621" t="n">
         <v>15</v>
       </c>
+      <c r="D621" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -9764,6 +11629,9 @@
       <c r="C622" t="n">
         <v>0.5</v>
       </c>
+      <c r="D622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -9779,6 +11647,9 @@
       <c r="C623" t="n">
         <v>5.2</v>
       </c>
+      <c r="D623" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -9794,6 +11665,9 @@
       <c r="C624" t="n">
         <v>1.04</v>
       </c>
+      <c r="D624" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -9809,6 +11683,9 @@
       <c r="C625" t="n">
         <v>0.022</v>
       </c>
+      <c r="D625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -9824,6 +11701,9 @@
       <c r="C626" t="n">
         <v>5</v>
       </c>
+      <c r="D626" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -9839,6 +11719,9 @@
       <c r="C627" t="n">
         <v>5.01</v>
       </c>
+      <c r="D627" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -9854,6 +11737,9 @@
       <c r="C628" t="n">
         <v>8.4</v>
       </c>
+      <c r="D628" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -9869,6 +11755,9 @@
       <c r="C629" t="n">
         <v>0.83</v>
       </c>
+      <c r="D629" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -9884,6 +11773,9 @@
       <c r="C630" t="n">
         <v>5.14</v>
       </c>
+      <c r="D630" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -9899,6 +11791,9 @@
       <c r="C631" t="n">
         <v>8.199999999999999</v>
       </c>
+      <c r="D631" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -9914,6 +11809,9 @@
       <c r="C632" t="n">
         <v>0.624</v>
       </c>
+      <c r="D632" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -9929,6 +11827,9 @@
       <c r="C633" t="n">
         <v>0.522</v>
       </c>
+      <c r="D633" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -9944,6 +11845,9 @@
       <c r="C634" t="n">
         <v>4343.325</v>
       </c>
+      <c r="D634" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -9959,6 +11863,9 @@
       <c r="C635" t="n">
         <v>18</v>
       </c>
+      <c r="D635" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -9974,6 +11881,9 @@
       <c r="C636" t="n">
         <v>16.7</v>
       </c>
+      <c r="D636" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -9989,6 +11899,9 @@
       <c r="C637" t="n">
         <v>6.89</v>
       </c>
+      <c r="D637" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -10004,6 +11917,9 @@
       <c r="C638" t="n">
         <v>0.41</v>
       </c>
+      <c r="D638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -10019,6 +11935,9 @@
       <c r="C639" t="n">
         <v>0.42</v>
       </c>
+      <c r="D639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -10034,6 +11953,9 @@
       <c r="C640" t="n">
         <v>11.7</v>
       </c>
+      <c r="D640" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -10049,6 +11971,9 @@
       <c r="C641" t="n">
         <v>10.832</v>
       </c>
+      <c r="D641" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -10064,6 +11989,9 @@
       <c r="C642" t="n">
         <v>2.2</v>
       </c>
+      <c r="D642" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -10079,6 +12007,9 @@
       <c r="C643" t="n">
         <v>6.99</v>
       </c>
+      <c r="D643" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -10094,6 +12025,9 @@
       <c r="C644" t="n">
         <v>7</v>
       </c>
+      <c r="D644" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -10109,6 +12043,9 @@
       <c r="C645" t="n">
         <v>21.5</v>
       </c>
+      <c r="D645" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -10124,6 +12061,9 @@
       <c r="C646" t="n">
         <v>6.159000000000001</v>
       </c>
+      <c r="D646" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -10139,6 +12079,9 @@
       <c r="C647" t="n">
         <v>0.53</v>
       </c>
+      <c r="D647" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -10154,6 +12097,9 @@
       <c r="C648" t="n">
         <v>5.66</v>
       </c>
+      <c r="D648" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -10169,6 +12115,9 @@
       <c r="C649" t="n">
         <v>27.93333333333333</v>
       </c>
+      <c r="D649" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -10184,6 +12133,9 @@
       <c r="C650" t="n">
         <v>0.87</v>
       </c>
+      <c r="D650" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -10199,6 +12151,9 @@
       <c r="C651" t="n">
         <v>5.1</v>
       </c>
+      <c r="D651" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -10214,6 +12169,9 @@
       <c r="C652" t="n">
         <v>10.5</v>
       </c>
+      <c r="D652" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -10229,6 +12187,9 @@
       <c r="C653" t="n">
         <v>5.25</v>
       </c>
+      <c r="D653" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -10244,6 +12205,9 @@
       <c r="C654" t="n">
         <v>19.6</v>
       </c>
+      <c r="D654" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -10259,6 +12223,9 @@
       <c r="C655" t="n">
         <v>5.385000000000001</v>
       </c>
+      <c r="D655" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -10274,6 +12241,9 @@
       <c r="C656" t="n">
         <v>5.14</v>
       </c>
+      <c r="D656" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -10289,6 +12259,9 @@
       <c r="C657" t="n">
         <v>1.8575</v>
       </c>
+      <c r="D657" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -10304,6 +12277,9 @@
       <c r="C658" t="n">
         <v>4.35</v>
       </c>
+      <c r="D658" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -10319,6 +12295,9 @@
       <c r="C659" t="n">
         <v>5.59</v>
       </c>
+      <c r="D659" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -10334,6 +12313,9 @@
       <c r="C660" t="n">
         <v>0.03333333333333333</v>
       </c>
+      <c r="D660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -10349,6 +12331,9 @@
       <c r="C661" t="n">
         <v>5.5</v>
       </c>
+      <c r="D661" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -10364,6 +12349,9 @@
       <c r="C662" t="n">
         <v>5.093</v>
       </c>
+      <c r="D662" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
@@ -10379,6 +12367,9 @@
       <c r="C663" t="n">
         <v>0.377</v>
       </c>
+      <c r="D663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -10394,6 +12385,9 @@
       <c r="C664" t="n">
         <v>7.5</v>
       </c>
+      <c r="D664" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
@@ -10409,6 +12403,9 @@
       <c r="C665" t="n">
         <v>8.67</v>
       </c>
+      <c r="D665" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
@@ -10424,6 +12421,9 @@
       <c r="C666" t="n">
         <v>5.2</v>
       </c>
+      <c r="D666" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -10439,6 +12439,9 @@
       <c r="C667" t="n">
         <v>5.319</v>
       </c>
+      <c r="D667" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -10454,6 +12457,9 @@
       <c r="C668" t="n">
         <v>5.6</v>
       </c>
+      <c r="D668" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
@@ -10469,6 +12475,9 @@
       <c r="C669" t="n">
         <v>5.1</v>
       </c>
+      <c r="D669" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
@@ -10484,6 +12493,9 @@
       <c r="C670" t="n">
         <v>0.1136</v>
       </c>
+      <c r="D670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
@@ -10499,6 +12511,9 @@
       <c r="C671" t="n">
         <v>0.0417</v>
       </c>
+      <c r="D671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
@@ -10514,6 +12529,9 @@
       <c r="C672" t="n">
         <v>8.6</v>
       </c>
+      <c r="D672" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -10529,6 +12547,9 @@
       <c r="C673" t="n">
         <v>5.17</v>
       </c>
+      <c r="D673" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
@@ -10544,6 +12565,9 @@
       <c r="C674" t="n">
         <v>0.1</v>
       </c>
+      <c r="D674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
@@ -10559,6 +12583,9 @@
       <c r="C675" t="n">
         <v>11.2</v>
       </c>
+      <c r="D675" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
@@ -10574,6 +12601,9 @@
       <c r="C676" t="n">
         <v>2.21</v>
       </c>
+      <c r="D676" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
@@ -10589,6 +12619,9 @@
       <c r="C677" t="n">
         <v>11</v>
       </c>
+      <c r="D677" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
@@ -10604,6 +12637,9 @@
       <c r="C678" t="n">
         <v>14.78</v>
       </c>
+      <c r="D678" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
@@ -10619,6 +12655,9 @@
       <c r="C679" t="n">
         <v>5.6</v>
       </c>
+      <c r="D679" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -10634,6 +12673,9 @@
       <c r="C680" t="n">
         <v>12.75</v>
       </c>
+      <c r="D680" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
@@ -10649,6 +12691,9 @@
       <c r="C681" t="n">
         <v>58.7</v>
       </c>
+      <c r="D681" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
@@ -10664,6 +12709,9 @@
       <c r="C682" t="n">
         <v>6.7</v>
       </c>
+      <c r="D682" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -10679,6 +12727,9 @@
       <c r="C683" t="n">
         <v>0.0225</v>
       </c>
+      <c r="D683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
@@ -10694,6 +12745,9 @@
       <c r="C684" t="n">
         <v>4.31</v>
       </c>
+      <c r="D684" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
@@ -10709,6 +12763,9 @@
       <c r="C685" t="n">
         <v>0.043</v>
       </c>
+      <c r="D685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -10724,6 +12781,9 @@
       <c r="C686" t="n">
         <v>5</v>
       </c>
+      <c r="D686" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
@@ -10739,6 +12799,9 @@
       <c r="C687" t="n">
         <v>9.063000000000001</v>
       </c>
+      <c r="D687" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
@@ -10754,6 +12817,9 @@
       <c r="C688" t="n">
         <v>14.2</v>
       </c>
+      <c r="D688" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -10769,6 +12835,9 @@
       <c r="C689" t="n">
         <v>10.55</v>
       </c>
+      <c r="D689" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
@@ -10784,6 +12853,9 @@
       <c r="C690" t="n">
         <v>5.3</v>
       </c>
+      <c r="D690" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
@@ -10799,6 +12871,9 @@
       <c r="C691" t="n">
         <v>5.8</v>
       </c>
+      <c r="D691" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
@@ -10814,6 +12889,9 @@
       <c r="C692" t="n">
         <v>0.06</v>
       </c>
+      <c r="D692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
@@ -10829,6 +12907,9 @@
       <c r="C693" t="n">
         <v>2.133</v>
       </c>
+      <c r="D693" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
@@ -10844,6 +12925,9 @@
       <c r="C694" t="n">
         <v>2.04</v>
       </c>
+      <c r="D694" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
@@ -10859,6 +12943,9 @@
       <c r="C695" t="n">
         <v>51.395</v>
       </c>
+      <c r="D695" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
@@ -10874,6 +12961,9 @@
       <c r="C696" t="n">
         <v>1.32</v>
       </c>
+      <c r="D696" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
@@ -10889,6 +12979,9 @@
       <c r="C697" t="n">
         <v>3.09</v>
       </c>
+      <c r="D697" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -10904,6 +12997,9 @@
       <c r="C698" t="n">
         <v>21.98</v>
       </c>
+      <c r="D698" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
@@ -10919,6 +13015,9 @@
       <c r="C699" t="n">
         <v>10.5</v>
       </c>
+      <c r="D699" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -10934,6 +13033,9 @@
       <c r="C700" t="n">
         <v>1.041</v>
       </c>
+      <c r="D700" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -10949,6 +13051,9 @@
       <c r="C701" t="n">
         <v>1.336666666666667</v>
       </c>
+      <c r="D701" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
@@ -10964,6 +13069,9 @@
       <c r="C702" t="n">
         <v>3.38</v>
       </c>
+      <c r="D702" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
@@ -10979,6 +13087,9 @@
       <c r="C703" t="n">
         <v>1.094333333333334</v>
       </c>
+      <c r="D703" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
@@ -10994,6 +13105,9 @@
       <c r="C704" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="D704" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
@@ -11009,6 +13123,9 @@
       <c r="C705" t="n">
         <v>5.93</v>
       </c>
+      <c r="D705" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
@@ -11024,6 +13141,9 @@
       <c r="C706" t="n">
         <v>20</v>
       </c>
+      <c r="D706" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
@@ -11039,6 +13159,9 @@
       <c r="C707" t="n">
         <v>5.991000000000001</v>
       </c>
+      <c r="D707" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
@@ -11054,6 +13177,9 @@
       <c r="C708" t="n">
         <v>1.306</v>
       </c>
+      <c r="D708" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
@@ -11069,6 +13195,9 @@
       <c r="C709" t="n">
         <v>5.104</v>
       </c>
+      <c r="D709" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
@@ -11084,6 +13213,9 @@
       <c r="C710" t="n">
         <v>2.5</v>
       </c>
+      <c r="D710" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
@@ -11099,6 +13231,9 @@
       <c r="C711" t="n">
         <v>55</v>
       </c>
+      <c r="D711" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
@@ -11114,6 +13249,9 @@
       <c r="C712" t="n">
         <v>2.11</v>
       </c>
+      <c r="D712" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
@@ -11129,6 +13267,9 @@
       <c r="C713" t="n">
         <v>5.7</v>
       </c>
+      <c r="D713" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
@@ -11144,6 +13285,9 @@
       <c r="C714" t="n">
         <v>5</v>
       </c>
+      <c r="D714" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
@@ -11159,6 +13303,9 @@
       <c r="C715" t="n">
         <v>0.517</v>
       </c>
+      <c r="D715" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
@@ -11174,6 +13321,9 @@
       <c r="C716" t="n">
         <v>0.63</v>
       </c>
+      <c r="D716" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
@@ -11189,6 +13339,9 @@
       <c r="C717" t="n">
         <v>0.181</v>
       </c>
+      <c r="D717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
@@ -11204,6 +13357,9 @@
       <c r="C718" t="n">
         <v>2.916</v>
       </c>
+      <c r="D718" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
@@ -11219,6 +13375,9 @@
       <c r="C719" t="n">
         <v>1.3</v>
       </c>
+      <c r="D719" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
@@ -11234,6 +13393,9 @@
       <c r="C720" t="n">
         <v>1.8</v>
       </c>
+      <c r="D720" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
@@ -11249,6 +13411,9 @@
       <c r="C721" t="n">
         <v>0.4</v>
       </c>
+      <c r="D721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
@@ -11264,6 +13429,9 @@
       <c r="C722" t="n">
         <v>32.03</v>
       </c>
+      <c r="D722" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
@@ -11279,6 +13447,9 @@
       <c r="C723" t="n">
         <v>1.65</v>
       </c>
+      <c r="D723" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
@@ -11294,6 +13465,9 @@
       <c r="C724" t="n">
         <v>1.87</v>
       </c>
+      <c r="D724" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
@@ -11309,6 +13483,9 @@
       <c r="C725" t="n">
         <v>2.1</v>
       </c>
+      <c r="D725" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
@@ -11324,6 +13501,9 @@
       <c r="C726" t="n">
         <v>8.529999999999999</v>
       </c>
+      <c r="D726" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
@@ -11339,6 +13519,9 @@
       <c r="C727" t="n">
         <v>23.78</v>
       </c>
+      <c r="D727" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
@@ -11354,6 +13537,9 @@
       <c r="C728" t="n">
         <v>0.078</v>
       </c>
+      <c r="D728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
@@ -11369,6 +13555,9 @@
       <c r="C729" t="n">
         <v>0.24</v>
       </c>
+      <c r="D729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
@@ -11384,6 +13573,9 @@
       <c r="C730" t="n">
         <v>6.54</v>
       </c>
+      <c r="D730" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
@@ -11399,6 +13591,9 @@
       <c r="C731" t="n">
         <v>5.7</v>
       </c>
+      <c r="D731" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
@@ -11414,6 +13609,9 @@
       <c r="C732" t="n">
         <v>0.51</v>
       </c>
+      <c r="D732" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
@@ -11429,6 +13627,9 @@
       <c r="C733" t="n">
         <v>4.83</v>
       </c>
+      <c r="D733" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
@@ -11444,6 +13645,9 @@
       <c r="C734" t="n">
         <v>1.86</v>
       </c>
+      <c r="D734" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
@@ -11459,6 +13663,9 @@
       <c r="C735" t="n">
         <v>5.6</v>
       </c>
+      <c r="D735" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
@@ -11474,6 +13681,9 @@
       <c r="C736" t="n">
         <v>0.09200000000000001</v>
       </c>
+      <c r="D736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
@@ -11489,6 +13699,9 @@
       <c r="C737" t="n">
         <v>6.49</v>
       </c>
+      <c r="D737" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
@@ -11504,6 +13717,9 @@
       <c r="C738" t="n">
         <v>5.41</v>
       </c>
+      <c r="D738" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
@@ -11519,6 +13735,9 @@
       <c r="C739" t="n">
         <v>5.7</v>
       </c>
+      <c r="D739" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
@@ -11534,6 +13753,9 @@
       <c r="C740" t="n">
         <v>7.69</v>
       </c>
+      <c r="D740" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
@@ -11549,6 +13771,9 @@
       <c r="C741" t="n">
         <v>1.593</v>
       </c>
+      <c r="D741" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
@@ -11564,6 +13789,9 @@
       <c r="C742" t="n">
         <v>5.11</v>
       </c>
+      <c r="D742" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
@@ -11579,6 +13807,9 @@
       <c r="C743" t="n">
         <v>2.4</v>
       </c>
+      <c r="D743" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
@@ -11594,6 +13825,9 @@
       <c r="C744" t="n">
         <v>1.04</v>
       </c>
+      <c r="D744" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
@@ -11609,6 +13843,9 @@
       <c r="C745" t="n">
         <v>5.24</v>
       </c>
+      <c r="D745" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
@@ -11624,6 +13861,9 @@
       <c r="C746" t="n">
         <v>7.866666666666667</v>
       </c>
+      <c r="D746" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
@@ -11639,6 +13879,9 @@
       <c r="C747" t="n">
         <v>0.5</v>
       </c>
+      <c r="D747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
@@ -11654,6 +13897,9 @@
       <c r="C748" t="n">
         <v>1</v>
       </c>
+      <c r="D748" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
@@ -11669,6 +13915,9 @@
       <c r="C749" t="n">
         <v>5.7</v>
       </c>
+      <c r="D749" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
@@ -11683,6 +13932,9 @@
       </c>
       <c r="C750" t="n">
         <v>0.0007</v>
+      </c>
+      <c r="D750" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
